--- a/cta策略/result/螺纹/BOLL_1d/绩效.xlsx
+++ b/cta策略/result/螺纹/BOLL_1d/绩效.xlsx
@@ -468,16 +468,16 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>-0.02276979519734723</v>
+        <v>0.02008550830195133</v>
       </c>
       <c r="D2">
-        <v>-0.2319722830451403</v>
+        <v>-0.09147512618543371</v>
       </c>
       <c r="E2">
-        <v>-0.03661091628153842</v>
+        <v>0.03415937367771415</v>
       </c>
       <c r="F2">
-        <v>0.6</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -488,13 +488,13 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>0.09472205232246944</v>
+        <v>0.08832861103049328</v>
       </c>
       <c r="D3">
-        <v>0.202881610108192</v>
+        <v>0.2224446893480522</v>
       </c>
       <c r="E3">
-        <v>0.1746129524080983</v>
+        <v>0.1743791365462695</v>
       </c>
       <c r="F3">
         <v>0.65</v>
@@ -508,13 +508,13 @@
         <v>8</v>
       </c>
       <c r="C4">
-        <v>0.1548142223112556</v>
+        <v>0.1209784597988051</v>
       </c>
       <c r="D4">
-        <v>0.4313389129349408</v>
+        <v>0.3727426380713384</v>
       </c>
       <c r="E4">
-        <v>0.319235005844051</v>
+        <v>0.2644817761051563</v>
       </c>
       <c r="F4">
         <v>0.75</v>
@@ -528,13 +528,13 @@
         <v>9</v>
       </c>
       <c r="C5">
-        <v>0.1850700010772255</v>
+        <v>0.1291345005802691</v>
       </c>
       <c r="D5">
-        <v>0.5570650615074392</v>
+        <v>0.4112712136619873</v>
       </c>
       <c r="E5">
-        <v>0.5642909417373715</v>
+        <v>0.3870051628556676</v>
       </c>
       <c r="F5">
         <v>0.65</v>
@@ -548,13 +548,13 @@
         <v>10</v>
       </c>
       <c r="C6">
-        <v>0.1643405055851572</v>
+        <v>0.1245292125280955</v>
       </c>
       <c r="D6">
-        <v>0.4633008669456491</v>
+        <v>0.3893629907074297</v>
       </c>
       <c r="E6">
-        <v>0.3709302876658507</v>
+        <v>0.29883546138125</v>
       </c>
       <c r="F6">
         <v>0.75</v>
@@ -568,13 +568,13 @@
         <v>11</v>
       </c>
       <c r="C7">
-        <v>0.2097400963673897</v>
+        <v>0.1469164597305359</v>
       </c>
       <c r="D7">
-        <v>0.6329526020231154</v>
+        <v>0.4932503355284813</v>
       </c>
       <c r="E7">
-        <v>0.5588927033538547</v>
+        <v>0.4050237760924612</v>
       </c>
       <c r="F7">
         <v>0.65</v>
@@ -588,13 +588,13 @@
         <v>12</v>
       </c>
       <c r="C8">
-        <v>0.2396185192484939</v>
+        <v>0.1612776736954002</v>
       </c>
       <c r="D8">
-        <v>0.7434054775526493</v>
+        <v>0.5593542845566798</v>
       </c>
       <c r="E8">
-        <v>0.7196079034003509</v>
+        <v>0.5086790767394089</v>
       </c>
       <c r="F8">
         <v>0.65</v>
@@ -608,13 +608,13 @@
         <v>13</v>
       </c>
       <c r="C9">
-        <v>0.2487141561995725</v>
+        <v>0.1609459425993058</v>
       </c>
       <c r="D9">
-        <v>0.7955234621080021</v>
+        <v>0.5584653202819813</v>
       </c>
       <c r="E9">
-        <v>0.7905941868701908</v>
+        <v>0.5082932460870837</v>
       </c>
       <c r="F9">
         <v>0.75</v>
@@ -628,13 +628,13 @@
         <v>14</v>
       </c>
       <c r="C10">
-        <v>0.09717725200243277</v>
+        <v>0.06932475733335286</v>
       </c>
       <c r="D10">
-        <v>0.2150518478279112</v>
+        <v>0.1362373293001065</v>
       </c>
       <c r="E10">
-        <v>0.2002153054215648</v>
+        <v>0.1463815295013038</v>
       </c>
       <c r="F10">
         <v>0.55</v>
@@ -648,13 +648,13 @@
         <v>15</v>
       </c>
       <c r="C11">
-        <v>0.004867708579333829</v>
+        <v>0.01470450723629324</v>
       </c>
       <c r="D11">
-        <v>-0.1301140281638289</v>
+        <v>-0.1174504389509808</v>
       </c>
       <c r="E11">
-        <v>0.007488558224593701</v>
+        <v>0.02365132952307123</v>
       </c>
       <c r="F11">
         <v>0.55</v>
@@ -668,13 +668,13 @@
         <v>16</v>
       </c>
       <c r="C12">
-        <v>0.09169579848776177</v>
+        <v>0.06987682235621695</v>
       </c>
       <c r="D12">
-        <v>0.1929965138052233</v>
+        <v>0.1390292508285477</v>
       </c>
       <c r="E12">
-        <v>0.2033252815762266</v>
+        <v>0.1676924113305567</v>
       </c>
       <c r="F12">
         <v>0.6</v>
@@ -688,13 +688,13 @@
         <v>17</v>
       </c>
       <c r="C13">
-        <v>0.2108321677591396</v>
+        <v>0.1432334609798753</v>
       </c>
       <c r="D13">
-        <v>0.6396239743210534</v>
+        <v>0.4854693475367886</v>
       </c>
       <c r="E13">
-        <v>0.6629865176918677</v>
+        <v>0.4712662114487096</v>
       </c>
       <c r="F13">
         <v>0.7</v>
@@ -708,13 +708,13 @@
         <v>18</v>
       </c>
       <c r="C14">
-        <v>0.286813401126045</v>
+        <v>0.1869471731942434</v>
       </c>
       <c r="D14">
-        <v>0.9513434271094381</v>
+        <v>0.6937897260632356</v>
       </c>
       <c r="E14">
-        <v>0.9758575049596948</v>
+        <v>0.635449193449602</v>
       </c>
       <c r="F14">
         <v>0.75</v>
@@ -728,13 +728,13 @@
         <v>19</v>
       </c>
       <c r="C15">
-        <v>0.3311073474215074</v>
+        <v>0.2131601295950483</v>
       </c>
       <c r="D15">
-        <v>1.120255390332634</v>
+        <v>0.8174384218125529</v>
       </c>
       <c r="E15">
-        <v>1.116943848672865</v>
+        <v>0.7245492409026543</v>
       </c>
       <c r="F15">
         <v>0.8</v>
@@ -748,16 +748,16 @@
         <v>20</v>
       </c>
       <c r="C16">
-        <v>0.3217992492499009</v>
+        <v>0.2088856488766677</v>
       </c>
       <c r="D16">
-        <v>1.079864741259139</v>
+        <v>0.8006102823702826</v>
       </c>
       <c r="E16">
-        <v>1.063887428715965</v>
+        <v>0.710019920782426</v>
       </c>
       <c r="F16">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -768,13 +768,13 @@
         <v>21</v>
       </c>
       <c r="C17">
-        <v>0.3163405654592601</v>
+        <v>0.1980047384934256</v>
       </c>
       <c r="D17">
-        <v>1.073991423918478</v>
+        <v>0.7510600235143676</v>
       </c>
       <c r="E17">
-        <v>1.065128773573317</v>
+        <v>0.6730347895879341</v>
       </c>
       <c r="F17">
         <v>0.7</v>

--- a/cta策略/result/螺纹/BOLL_1d/绩效.xlsx
+++ b/cta策略/result/螺纹/BOLL_1d/绩效.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="60">
   <si>
     <t>参数</t>
   </si>
@@ -46,6 +46,12 @@
     <t>[10, 2]</t>
   </si>
   <si>
+    <t>[10, 2.5]</t>
+  </si>
+  <si>
+    <t>[10, 3]</t>
+  </si>
+  <si>
     <t>[20, 0.5]</t>
   </si>
   <si>
@@ -58,6 +64,66 @@
     <t>[20, 2]</t>
   </si>
   <si>
+    <t>[20, 2.5]</t>
+  </si>
+  <si>
+    <t>[20, 3]</t>
+  </si>
+  <si>
+    <t>[30, 0.5]</t>
+  </si>
+  <si>
+    <t>[30, 1]</t>
+  </si>
+  <si>
+    <t>[30, 1.5]</t>
+  </si>
+  <si>
+    <t>[30, 2]</t>
+  </si>
+  <si>
+    <t>[30, 2.5]</t>
+  </si>
+  <si>
+    <t>[30, 3]</t>
+  </si>
+  <si>
+    <t>[40, 0.5]</t>
+  </si>
+  <si>
+    <t>[40, 1]</t>
+  </si>
+  <si>
+    <t>[40, 1.5]</t>
+  </si>
+  <si>
+    <t>[40, 2]</t>
+  </si>
+  <si>
+    <t>[40, 2.5]</t>
+  </si>
+  <si>
+    <t>[40, 3]</t>
+  </si>
+  <si>
+    <t>[50, 0.5]</t>
+  </si>
+  <si>
+    <t>[50, 1]</t>
+  </si>
+  <si>
+    <t>[50, 1.5]</t>
+  </si>
+  <si>
+    <t>[50, 2]</t>
+  </si>
+  <si>
+    <t>[50, 2.5]</t>
+  </si>
+  <si>
+    <t>[50, 3]</t>
+  </si>
+  <si>
     <t>[60, 0.5]</t>
   </si>
   <si>
@@ -70,6 +136,48 @@
     <t>[60, 2]</t>
   </si>
   <si>
+    <t>[60, 2.5]</t>
+  </si>
+  <si>
+    <t>[60, 3]</t>
+  </si>
+  <si>
+    <t>[80, 0.5]</t>
+  </si>
+  <si>
+    <t>[80, 1]</t>
+  </si>
+  <si>
+    <t>[80, 1.5]</t>
+  </si>
+  <si>
+    <t>[80, 2]</t>
+  </si>
+  <si>
+    <t>[80, 2.5]</t>
+  </si>
+  <si>
+    <t>[80, 3]</t>
+  </si>
+  <si>
+    <t>[100, 0.5]</t>
+  </si>
+  <si>
+    <t>[100, 1]</t>
+  </si>
+  <si>
+    <t>[100, 1.5]</t>
+  </si>
+  <si>
+    <t>[100, 2]</t>
+  </si>
+  <si>
+    <t>[100, 2.5]</t>
+  </si>
+  <si>
+    <t>[100, 3]</t>
+  </si>
+  <si>
     <t>[120, 0.5]</t>
   </si>
   <si>
@@ -80,6 +188,12 @@
   </si>
   <si>
     <t>[120, 2]</t>
+  </si>
+  <si>
+    <t>[120, 2.5]</t>
+  </si>
+  <si>
+    <t>[120, 3]</t>
   </si>
 </sst>
 </file>
@@ -437,7 +551,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -468,16 +582,16 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>0.02008550830195133</v>
+        <v>0.003634846076086662</v>
       </c>
       <c r="D2">
-        <v>-0.09147512618543371</v>
+        <v>-0.1664397210180082</v>
       </c>
       <c r="E2">
-        <v>0.03415937367771415</v>
+        <v>0.006063277669766977</v>
       </c>
       <c r="F2">
-        <v>0.65</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -488,13 +602,13 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>0.08832861103049328</v>
+        <v>0.07664775278596192</v>
       </c>
       <c r="D3">
-        <v>0.2224446893480522</v>
+        <v>0.1682675199493224</v>
       </c>
       <c r="E3">
-        <v>0.1743791365462695</v>
+        <v>0.1479921569689203</v>
       </c>
       <c r="F3">
         <v>0.65</v>
@@ -508,13 +622,13 @@
         <v>8</v>
       </c>
       <c r="C4">
-        <v>0.1209784597988051</v>
+        <v>0.1115273734774211</v>
       </c>
       <c r="D4">
-        <v>0.3727426380713384</v>
+        <v>0.3286361021546753</v>
       </c>
       <c r="E4">
-        <v>0.2644817761051563</v>
+        <v>0.2397777705559622</v>
       </c>
       <c r="F4">
         <v>0.75</v>
@@ -528,13 +642,13 @@
         <v>9</v>
       </c>
       <c r="C5">
-        <v>0.1291345005802691</v>
+        <v>0.1248513615331552</v>
       </c>
       <c r="D5">
-        <v>0.4112712136619873</v>
+        <v>0.3911400263322947</v>
       </c>
       <c r="E5">
-        <v>0.3870051628556676</v>
+        <v>0.371872226469745</v>
       </c>
       <c r="F5">
         <v>0.65</v>
@@ -548,16 +662,16 @@
         <v>10</v>
       </c>
       <c r="C6">
-        <v>0.1245292125280955</v>
+        <v>0.2585480885443339</v>
       </c>
       <c r="D6">
-        <v>0.3893629907074297</v>
+        <v>1.033398809058085</v>
       </c>
       <c r="E6">
-        <v>0.29883546138125</v>
+        <v>0.8782125126084439</v>
       </c>
       <c r="F6">
-        <v>0.75</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -568,16 +682,16 @@
         <v>11</v>
       </c>
       <c r="C7">
-        <v>0.1469164597305359</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>0.4932503355284813</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>0.4050237760924612</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>0.65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -588,16 +702,16 @@
         <v>12</v>
       </c>
       <c r="C8">
-        <v>0.1612776736954002</v>
+        <v>0.1156690610048661</v>
       </c>
       <c r="D8">
-        <v>0.5593542845566798</v>
+        <v>0.3479064660165532</v>
       </c>
       <c r="E8">
-        <v>0.5086790767394089</v>
+        <v>0.2712964381819018</v>
       </c>
       <c r="F8">
-        <v>0.65</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -608,16 +722,16 @@
         <v>13</v>
       </c>
       <c r="C9">
-        <v>0.1609459425993058</v>
+        <v>0.1408594813742505</v>
       </c>
       <c r="D9">
-        <v>0.5584653202819813</v>
+        <v>0.4648480958223148</v>
       </c>
       <c r="E9">
-        <v>0.5082932460870837</v>
+        <v>0.3836813669761711</v>
       </c>
       <c r="F9">
-        <v>0.75</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -628,16 +742,16 @@
         <v>14</v>
       </c>
       <c r="C10">
-        <v>0.06932475733335286</v>
+        <v>0.1566818032544166</v>
       </c>
       <c r="D10">
-        <v>0.1362373293001065</v>
+        <v>0.5376788843777479</v>
       </c>
       <c r="E10">
-        <v>0.1463815295013038</v>
+        <v>0.4900395920091976</v>
       </c>
       <c r="F10">
-        <v>0.55</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -648,16 +762,16 @@
         <v>15</v>
       </c>
       <c r="C11">
-        <v>0.01470450723629324</v>
+        <v>0.158173018010302</v>
       </c>
       <c r="D11">
-        <v>-0.1174504389509808</v>
+        <v>0.5454613504650445</v>
       </c>
       <c r="E11">
-        <v>0.02365132952307123</v>
+        <v>0.4974909852720176</v>
       </c>
       <c r="F11">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -668,16 +782,16 @@
         <v>16</v>
       </c>
       <c r="C12">
-        <v>0.06987682235621695</v>
+        <v>0.2571342882087184</v>
       </c>
       <c r="D12">
-        <v>0.1390292508285477</v>
+        <v>1.011342538308025</v>
       </c>
       <c r="E12">
-        <v>0.1676924113305567</v>
+        <v>0.8734102448676218</v>
       </c>
       <c r="F12">
-        <v>0.6</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -688,16 +802,16 @@
         <v>17</v>
       </c>
       <c r="C13">
-        <v>0.1432334609798753</v>
+        <v>0.1834650299721308</v>
       </c>
       <c r="D13">
-        <v>0.4854693475367886</v>
+        <v>0.7032777500593451</v>
       </c>
       <c r="E13">
-        <v>0.4712662114487096</v>
+        <v>0.6231772427897128</v>
       </c>
       <c r="F13">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -708,16 +822,16 @@
         <v>18</v>
       </c>
       <c r="C14">
-        <v>0.1869471731942434</v>
+        <v>0.0843612678278971</v>
       </c>
       <c r="D14">
-        <v>0.6937897260632356</v>
+        <v>0.2045686840861744</v>
       </c>
       <c r="E14">
-        <v>0.635449193449602</v>
+        <v>0.165716534519499</v>
       </c>
       <c r="F14">
-        <v>0.75</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -728,16 +842,16 @@
         <v>19</v>
       </c>
       <c r="C15">
-        <v>0.2131601295950483</v>
+        <v>0.1028689760770189</v>
       </c>
       <c r="D15">
-        <v>0.8174384218125529</v>
+        <v>0.2901868634827212</v>
       </c>
       <c r="E15">
-        <v>0.7245492409026543</v>
+        <v>0.2462655731609482</v>
       </c>
       <c r="F15">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -748,16 +862,16 @@
         <v>20</v>
       </c>
       <c r="C16">
-        <v>0.2088856488766677</v>
+        <v>0.09885135078501617</v>
       </c>
       <c r="D16">
-        <v>0.8006102823702826</v>
+        <v>0.2715973463569912</v>
       </c>
       <c r="E16">
-        <v>0.710019920782426</v>
+        <v>0.2105601856590729</v>
       </c>
       <c r="F16">
-        <v>0.8</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -768,16 +882,776 @@
         <v>21</v>
       </c>
       <c r="C17">
-        <v>0.1980047384934256</v>
+        <v>0.1614690356211441</v>
       </c>
       <c r="D17">
-        <v>0.7510600235143676</v>
+        <v>0.5622371287708892</v>
       </c>
       <c r="E17">
-        <v>0.6730347895879341</v>
+        <v>0.5484632598898214</v>
       </c>
       <c r="F17">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18">
+        <v>0.1165124500882841</v>
+      </c>
+      <c r="D18">
+        <v>0.3572957875918323</v>
+      </c>
+      <c r="E18">
+        <v>0.3664587950588519</v>
+      </c>
+      <c r="F18">
         <v>0.7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19">
+        <v>0.11369241433002</v>
+      </c>
+      <c r="D19">
+        <v>0.3475668631160918</v>
+      </c>
+      <c r="E19">
+        <v>0.3575004457229766</v>
+      </c>
+      <c r="F19">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20">
+        <v>0.04874468306572166</v>
+      </c>
+      <c r="D20">
+        <v>0.04038983515136159</v>
+      </c>
+      <c r="E20">
+        <v>0.09176125551637752</v>
+      </c>
+      <c r="F20">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21">
+        <v>0.0844008777744194</v>
+      </c>
+      <c r="D21">
+        <v>0.2052491237782223</v>
+      </c>
+      <c r="E21">
+        <v>0.1899891454024547</v>
+      </c>
+      <c r="F21">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22">
+        <v>0.06513791121071111</v>
+      </c>
+      <c r="D22">
+        <v>0.1162391188983686</v>
+      </c>
+      <c r="E22">
+        <v>0.1283022809585238</v>
+      </c>
+      <c r="F22">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23">
+        <v>0.147323152662572</v>
+      </c>
+      <c r="D23">
+        <v>0.4975672813138453</v>
+      </c>
+      <c r="E23">
+        <v>0.5004138177684084</v>
+      </c>
+      <c r="F23">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24">
+        <v>0.13552674122841</v>
+      </c>
+      <c r="D24">
+        <v>0.4508680449508557</v>
+      </c>
+      <c r="E24">
+        <v>0.3774142732247306</v>
+      </c>
+      <c r="F24">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25">
+        <v>0.1526263320747074</v>
+      </c>
+      <c r="D25">
+        <v>0.5377697884271174</v>
+      </c>
+      <c r="E25">
+        <v>0.479926317576348</v>
+      </c>
+      <c r="F25">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26">
+        <v>0.06524622176938522</v>
+      </c>
+      <c r="D26">
+        <v>0.1169272084897678</v>
+      </c>
+      <c r="E26">
+        <v>0.1414852006351755</v>
+      </c>
+      <c r="F26">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27">
+        <v>0.05875016013175616</v>
+      </c>
+      <c r="D27">
+        <v>0.08677550577025202</v>
+      </c>
+      <c r="E27">
+        <v>0.1209796158050763</v>
+      </c>
+      <c r="F27">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28">
+        <v>0.009844187372112012</v>
+      </c>
+      <c r="D28">
+        <v>-0.1397954146171927</v>
+      </c>
+      <c r="E28">
+        <v>0.01593398767049278</v>
+      </c>
+      <c r="F28">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29">
+        <v>0.1551334396139066</v>
+      </c>
+      <c r="D29">
+        <v>0.5395395271045503</v>
+      </c>
+      <c r="E29">
+        <v>0.5085828006776227</v>
+      </c>
+      <c r="F29">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30">
+        <v>0.1835660726334487</v>
+      </c>
+      <c r="D30">
+        <v>0.6783414975397</v>
+      </c>
+      <c r="E30">
+        <v>0.623520455265103</v>
+      </c>
+      <c r="F30">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31">
+        <v>0.1692608122124692</v>
+      </c>
+      <c r="D31">
+        <v>0.6139425970044311</v>
+      </c>
+      <c r="E31">
+        <v>0.5322326574378438</v>
+      </c>
+      <c r="F31">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32" t="s">
+        <v>36</v>
+      </c>
+      <c r="C32">
+        <v>0.06602417779764713</v>
+      </c>
+      <c r="D32">
+        <v>0.1208111174840767</v>
+      </c>
+      <c r="E32">
+        <v>0.1379112458196376</v>
+      </c>
+      <c r="F32">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" t="s">
+        <v>37</v>
+      </c>
+      <c r="C33">
+        <v>0.0120583429097052</v>
+      </c>
+      <c r="D33">
+        <v>-0.1296353300673229</v>
+      </c>
+      <c r="E33">
+        <v>0.01926134905400969</v>
+      </c>
+      <c r="F33">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34">
+        <v>0.06767927375899996</v>
+      </c>
+      <c r="D34">
+        <v>0.1287355414930264</v>
+      </c>
+      <c r="E34">
+        <v>0.1611550572560224</v>
+      </c>
+      <c r="F34">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35" t="s">
+        <v>39</v>
+      </c>
+      <c r="C35">
+        <v>0.1417443686696902</v>
+      </c>
+      <c r="D35">
+        <v>0.4783328514132835</v>
+      </c>
+      <c r="E35">
+        <v>0.4646886459665024</v>
+      </c>
+      <c r="F35">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36" t="s">
+        <v>40</v>
+      </c>
+      <c r="C36">
+        <v>0.1856130991506566</v>
+      </c>
+      <c r="D36">
+        <v>0.6879970202256385</v>
+      </c>
+      <c r="E36">
+        <v>0.630473607814691</v>
+      </c>
+      <c r="F36">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B37" t="s">
+        <v>41</v>
+      </c>
+      <c r="C37">
+        <v>0.1692608122124692</v>
+      </c>
+      <c r="D37">
+        <v>0.6139425970044311</v>
+      </c>
+      <c r="E37">
+        <v>0.5322326574378438</v>
+      </c>
+      <c r="F37">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B38" t="s">
+        <v>42</v>
+      </c>
+      <c r="C38">
+        <v>0.03924182130822507</v>
+      </c>
+      <c r="D38">
+        <v>-0.003549185058888439</v>
+      </c>
+      <c r="E38">
+        <v>0.07530824788315307</v>
+      </c>
+      <c r="F38">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B39" t="s">
+        <v>43</v>
+      </c>
+      <c r="C39">
+        <v>0.1423032352107221</v>
+      </c>
+      <c r="D39">
+        <v>0.4799154787132801</v>
+      </c>
+      <c r="E39">
+        <v>0.343988930840589</v>
+      </c>
+      <c r="F39">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B40" t="s">
+        <v>44</v>
+      </c>
+      <c r="C40">
+        <v>0.2057625348374552</v>
+      </c>
+      <c r="D40">
+        <v>0.7783526940243926</v>
+      </c>
+      <c r="E40">
+        <v>0.6989153690428391</v>
+      </c>
+      <c r="F40">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B41" t="s">
+        <v>45</v>
+      </c>
+      <c r="C41">
+        <v>0.2036753591394058</v>
+      </c>
+      <c r="D41">
+        <v>0.7737283488410007</v>
+      </c>
+      <c r="E41">
+        <v>0.6918258414259106</v>
+      </c>
+      <c r="F41">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B42" t="s">
+        <v>46</v>
+      </c>
+      <c r="C42">
+        <v>0.2005770269102183</v>
+      </c>
+      <c r="D42">
+        <v>0.7634882308207657</v>
+      </c>
+      <c r="E42">
+        <v>0.6813017097364851</v>
+      </c>
+      <c r="F42">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B43" t="s">
+        <v>47</v>
+      </c>
+      <c r="C43">
+        <v>0.1364651774183849</v>
+      </c>
+      <c r="D43">
+        <v>0.4659498871881873</v>
+      </c>
+      <c r="E43">
+        <v>0.4291083274133254</v>
+      </c>
+      <c r="F43">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B44" t="s">
+        <v>48</v>
+      </c>
+      <c r="C44">
+        <v>0.1313716701736074</v>
+      </c>
+      <c r="D44">
+        <v>0.4298424452614237</v>
+      </c>
+      <c r="E44">
+        <v>0.3194125973547157</v>
+      </c>
+      <c r="F44">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B45" t="s">
+        <v>49</v>
+      </c>
+      <c r="C45">
+        <v>0.1624252198798439</v>
+      </c>
+      <c r="D45">
+        <v>0.5760315756534383</v>
+      </c>
+      <c r="E45">
+        <v>0.5517111391724613</v>
+      </c>
+      <c r="F45">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B46" t="s">
+        <v>50</v>
+      </c>
+      <c r="C46">
+        <v>0.2175069070683784</v>
+      </c>
+      <c r="D46">
+        <v>0.8361461848995237</v>
+      </c>
+      <c r="E46">
+        <v>0.7388075790529703</v>
+      </c>
+      <c r="F46">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B47" t="s">
+        <v>51</v>
+      </c>
+      <c r="C47">
+        <v>0.2005770269102183</v>
+      </c>
+      <c r="D47">
+        <v>0.7634882308207657</v>
+      </c>
+      <c r="E47">
+        <v>0.6813017097364851</v>
+      </c>
+      <c r="F47">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B48" t="s">
+        <v>52</v>
+      </c>
+      <c r="C48">
+        <v>0.1770883706700435</v>
+      </c>
+      <c r="D48">
+        <v>0.6552504052520642</v>
+      </c>
+      <c r="E48">
+        <v>0.6015175893795349</v>
+      </c>
+      <c r="F48">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B49" t="s">
+        <v>53</v>
+      </c>
+      <c r="C49">
+        <v>0.1454271972085108</v>
+      </c>
+      <c r="D49">
+        <v>0.503129630817666</v>
+      </c>
+      <c r="E49">
+        <v>0.4164874882525547</v>
+      </c>
+      <c r="F49">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B50" t="s">
+        <v>54</v>
+      </c>
+      <c r="C50">
+        <v>0.1854093269374815</v>
+      </c>
+      <c r="D50">
+        <v>0.6862926362390793</v>
+      </c>
+      <c r="E50">
+        <v>0.6297814529883302</v>
+      </c>
+      <c r="F50">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B51" t="s">
+        <v>55</v>
+      </c>
+      <c r="C51">
+        <v>0.2120770693134562</v>
+      </c>
+      <c r="D51">
+        <v>0.8120943063999105</v>
+      </c>
+      <c r="E51">
+        <v>0.7203640025227611</v>
+      </c>
+      <c r="F51">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B52" t="s">
+        <v>56</v>
+      </c>
+      <c r="C52">
+        <v>0.2078209667643107</v>
+      </c>
+      <c r="D52">
+        <v>0.795348424646269</v>
+      </c>
+      <c r="E52">
+        <v>0.7059072624453228</v>
+      </c>
+      <c r="F52">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B53" t="s">
+        <v>57</v>
+      </c>
+      <c r="C53">
+        <v>0.1969753949081683</v>
+      </c>
+      <c r="D53">
+        <v>0.7460414243545378</v>
+      </c>
+      <c r="E53">
+        <v>0.6690680153865483</v>
+      </c>
+      <c r="F53">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B54" t="s">
+        <v>58</v>
+      </c>
+      <c r="C54">
+        <v>0.1454271972085108</v>
+      </c>
+      <c r="D54">
+        <v>0.503129630817666</v>
+      </c>
+      <c r="E54">
+        <v>0.4164874882525547</v>
+      </c>
+      <c r="F54">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B55" t="s">
+        <v>59</v>
+      </c>
+      <c r="C55">
+        <v>0.1235173381346173</v>
+      </c>
+      <c r="D55">
+        <v>0.4050664833706684</v>
+      </c>
+      <c r="E55">
+        <v>0.3883944561988408</v>
+      </c>
+      <c r="F55">
+        <v>0.6</v>
       </c>
     </row>
   </sheetData>

--- a/cta策略/result/螺纹/BOLL_1d/绩效.xlsx
+++ b/cta策略/result/螺纹/BOLL_1d/绩效.xlsx
@@ -582,13 +582,13 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>0.003634846076086662</v>
+        <v>-0.01119785517452809</v>
       </c>
       <c r="D2">
-        <v>-0.1664397210180082</v>
+        <v>-0.233011893213533</v>
       </c>
       <c r="E2">
-        <v>0.006063277669766977</v>
+        <v>-0.01828758617277326</v>
       </c>
       <c r="F2">
         <v>0.6</v>
@@ -602,13 +602,13 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>0.07664775278596192</v>
+        <v>0.06559805620962078</v>
       </c>
       <c r="D3">
-        <v>0.1682675199493224</v>
+        <v>0.1170598851744737</v>
       </c>
       <c r="E3">
-        <v>0.1479921569689203</v>
+        <v>0.1236222251010736</v>
       </c>
       <c r="F3">
         <v>0.65</v>
@@ -622,13 +622,13 @@
         <v>8</v>
       </c>
       <c r="C4">
-        <v>0.1115273734774211</v>
+        <v>0.1030096340254261</v>
       </c>
       <c r="D4">
-        <v>0.3286361021546753</v>
+        <v>0.2886298818883862</v>
       </c>
       <c r="E4">
-        <v>0.2397777705559622</v>
+        <v>0.2172707455748921</v>
       </c>
       <c r="F4">
         <v>0.75</v>
@@ -642,13 +642,13 @@
         <v>9</v>
       </c>
       <c r="C5">
-        <v>0.1248513615331552</v>
+        <v>0.1208681686339137</v>
       </c>
       <c r="D5">
-        <v>0.3911400263322947</v>
+        <v>0.3723284898002842</v>
       </c>
       <c r="E5">
-        <v>0.371872226469745</v>
+        <v>0.3584487751773872</v>
       </c>
       <c r="F5">
         <v>0.65</v>
@@ -662,13 +662,13 @@
         <v>10</v>
       </c>
       <c r="C6">
-        <v>0.2585480885443339</v>
+        <v>0.2570645071293474</v>
       </c>
       <c r="D6">
-        <v>1.033398809058085</v>
+        <v>1.026337251993977</v>
       </c>
       <c r="E6">
-        <v>0.8782125126084439</v>
+        <v>0.8723380599132075</v>
       </c>
       <c r="F6">
         <v>0.85</v>
@@ -702,13 +702,13 @@
         <v>12</v>
       </c>
       <c r="C8">
-        <v>0.1156690610048661</v>
+        <v>0.1072252683892867</v>
       </c>
       <c r="D8">
-        <v>0.3479064660165532</v>
+        <v>0.3082164859934396</v>
       </c>
       <c r="E8">
-        <v>0.2712964381819018</v>
+        <v>0.245033535892583</v>
       </c>
       <c r="F8">
         <v>0.75</v>
@@ -722,13 +722,13 @@
         <v>13</v>
       </c>
       <c r="C9">
-        <v>0.1408594813742505</v>
+        <v>0.1349898258082207</v>
       </c>
       <c r="D9">
-        <v>0.4648480958223148</v>
+        <v>0.4370326522607619</v>
       </c>
       <c r="E9">
-        <v>0.3836813669761711</v>
+        <v>0.3627472885456348</v>
       </c>
       <c r="F9">
         <v>0.65</v>
@@ -742,13 +742,13 @@
         <v>14</v>
       </c>
       <c r="C10">
-        <v>0.1566818032544166</v>
+        <v>0.1521009469492496</v>
       </c>
       <c r="D10">
-        <v>0.5376788843777479</v>
+        <v>0.5159349529436318</v>
       </c>
       <c r="E10">
-        <v>0.4900395920091976</v>
+        <v>0.4711957586174867</v>
       </c>
       <c r="F10">
         <v>0.65</v>
@@ -762,13 +762,13 @@
         <v>15</v>
       </c>
       <c r="C11">
-        <v>0.158173018010302</v>
+        <v>0.1550888208780234</v>
       </c>
       <c r="D11">
-        <v>0.5454613504650445</v>
+        <v>0.5308659952492724</v>
       </c>
       <c r="E11">
-        <v>0.4974909852720176</v>
+        <v>0.4854965127526188</v>
       </c>
       <c r="F11">
         <v>0.75</v>
@@ -782,13 +782,13 @@
         <v>16</v>
       </c>
       <c r="C12">
-        <v>0.2571342882087184</v>
+        <v>0.2553226768295167</v>
       </c>
       <c r="D12">
-        <v>1.011342538308025</v>
+        <v>1.002809829357374</v>
       </c>
       <c r="E12">
-        <v>0.8734102448676218</v>
+        <v>0.8664272288870946</v>
       </c>
       <c r="F12">
         <v>0.85</v>
@@ -802,13 +802,13 @@
         <v>17</v>
       </c>
       <c r="C13">
-        <v>0.1834650299721308</v>
+        <v>0.1822622558338556</v>
       </c>
       <c r="D13">
-        <v>0.7032777500593451</v>
+        <v>0.6973600312360991</v>
       </c>
       <c r="E13">
-        <v>0.6231772427897128</v>
+        <v>0.6184996304040867</v>
       </c>
       <c r="F13">
         <v>0.6</v>
@@ -822,13 +822,13 @@
         <v>18</v>
       </c>
       <c r="C14">
-        <v>0.0843612678278971</v>
+        <v>0.07841169808357118</v>
       </c>
       <c r="D14">
-        <v>0.2045686840861744</v>
+        <v>0.1767599055095676</v>
       </c>
       <c r="E14">
-        <v>0.165716534519499</v>
+        <v>0.1523798322886734</v>
       </c>
       <c r="F14">
         <v>0.7</v>
@@ -842,13 +842,13 @@
         <v>19</v>
       </c>
       <c r="C15">
-        <v>0.1028689760770189</v>
+        <v>0.0982427504992156</v>
       </c>
       <c r="D15">
-        <v>0.2901868634827212</v>
+        <v>0.268471764142127</v>
       </c>
       <c r="E15">
-        <v>0.2462655731609482</v>
+        <v>0.2331113962807859</v>
       </c>
       <c r="F15">
         <v>0.6</v>
@@ -862,13 +862,13 @@
         <v>20</v>
       </c>
       <c r="C16">
-        <v>0.09885135078501617</v>
+        <v>0.09534288628551657</v>
       </c>
       <c r="D16">
-        <v>0.2715973463569912</v>
+        <v>0.2551663122391116</v>
       </c>
       <c r="E16">
-        <v>0.2105601856590729</v>
+        <v>0.2008925243919265</v>
       </c>
       <c r="F16">
         <v>0.65</v>
@@ -882,13 +882,13 @@
         <v>21</v>
       </c>
       <c r="C17">
-        <v>0.1614690356211441</v>
+        <v>0.1587622860966351</v>
       </c>
       <c r="D17">
-        <v>0.5622371287708892</v>
+        <v>0.5494115784086411</v>
       </c>
       <c r="E17">
-        <v>0.5484632598898214</v>
+        <v>0.5387534288085836</v>
       </c>
       <c r="F17">
         <v>0.75</v>
@@ -902,13 +902,13 @@
         <v>22</v>
       </c>
       <c r="C18">
-        <v>0.1165124500882841</v>
+        <v>0.1145292083008023</v>
       </c>
       <c r="D18">
-        <v>0.3572957875918323</v>
+        <v>0.3479016047723784</v>
       </c>
       <c r="E18">
-        <v>0.3664587950588519</v>
+        <v>0.3585270100292363</v>
       </c>
       <c r="F18">
         <v>0.7</v>
@@ -922,13 +922,13 @@
         <v>23</v>
       </c>
       <c r="C19">
-        <v>0.11369241433002</v>
+        <v>0.112262781603071</v>
       </c>
       <c r="D19">
-        <v>0.3475668631160918</v>
+        <v>0.3408104547329582</v>
       </c>
       <c r="E19">
-        <v>0.3575004457229766</v>
+        <v>0.3515702401084848</v>
       </c>
       <c r="F19">
         <v>0.65</v>
@@ -942,13 +942,13 @@
         <v>24</v>
       </c>
       <c r="C20">
-        <v>0.04874468306572166</v>
+        <v>0.04365654783569939</v>
       </c>
       <c r="D20">
-        <v>0.04038983515136159</v>
+        <v>0.01686094683707492</v>
       </c>
       <c r="E20">
-        <v>0.09176125551637752</v>
+        <v>0.08112186181933574</v>
       </c>
       <c r="F20">
         <v>0.6</v>
@@ -962,13 +962,13 @@
         <v>25</v>
       </c>
       <c r="C21">
-        <v>0.0844008777744194</v>
+        <v>0.08072806991033454</v>
       </c>
       <c r="D21">
-        <v>0.2052491237782223</v>
+        <v>0.1881003393553492</v>
       </c>
       <c r="E21">
-        <v>0.1899891454024547</v>
+        <v>0.1795655081384558</v>
       </c>
       <c r="F21">
         <v>0.6</v>
@@ -982,13 +982,13 @@
         <v>26</v>
       </c>
       <c r="C22">
-        <v>0.06513791121071111</v>
+        <v>0.06196299964485275</v>
       </c>
       <c r="D22">
-        <v>0.1162391188983686</v>
+        <v>0.101467022975021</v>
       </c>
       <c r="E22">
-        <v>0.1283022809585238</v>
+        <v>0.1215027962373429</v>
       </c>
       <c r="F22">
         <v>0.55</v>
@@ -1002,13 +1002,13 @@
         <v>27</v>
       </c>
       <c r="C23">
-        <v>0.147323152662572</v>
+        <v>0.1449014287008137</v>
       </c>
       <c r="D23">
-        <v>0.4975672813138453</v>
+        <v>0.4861465379470914</v>
       </c>
       <c r="E23">
-        <v>0.5004138177684084</v>
+        <v>0.491717167037445</v>
       </c>
       <c r="F23">
         <v>0.75</v>
@@ -1022,13 +1022,13 @@
         <v>28</v>
       </c>
       <c r="C24">
-        <v>0.13552674122841</v>
+        <v>0.1338055011112087</v>
       </c>
       <c r="D24">
-        <v>0.4508680449508557</v>
+        <v>0.442641168937375</v>
       </c>
       <c r="E24">
-        <v>0.3774142732247306</v>
+        <v>0.3711489475597851</v>
       </c>
       <c r="F24">
         <v>0.7</v>
@@ -1042,13 +1042,13 @@
         <v>29</v>
       </c>
       <c r="C25">
-        <v>0.1526263320747074</v>
+        <v>0.1513434775267049</v>
       </c>
       <c r="D25">
-        <v>0.5377697884271174</v>
+        <v>0.5316695572028917</v>
       </c>
       <c r="E25">
-        <v>0.479926317576348</v>
+        <v>0.4739581718279935</v>
       </c>
       <c r="F25">
         <v>0.65</v>
@@ -1062,13 +1062,13 @@
         <v>30</v>
       </c>
       <c r="C26">
-        <v>0.06524622176938522</v>
+        <v>0.06116160183465058</v>
       </c>
       <c r="D26">
-        <v>0.1169272084897678</v>
+        <v>0.09788156187404576</v>
       </c>
       <c r="E26">
-        <v>0.1414852006351755</v>
+        <v>0.1308854958024531</v>
       </c>
       <c r="F26">
         <v>0.55</v>
@@ -1082,13 +1082,13 @@
         <v>31</v>
       </c>
       <c r="C27">
-        <v>0.05875016013175616</v>
+        <v>0.05558509574086767</v>
       </c>
       <c r="D27">
-        <v>0.08677550577025202</v>
+        <v>0.07206488496279348</v>
       </c>
       <c r="E27">
-        <v>0.1209796158050763</v>
+        <v>0.1138989453640397</v>
       </c>
       <c r="F27">
         <v>0.55</v>
@@ -1102,13 +1102,13 @@
         <v>32</v>
       </c>
       <c r="C28">
-        <v>0.009844187372112012</v>
+        <v>0.00726019440615433</v>
       </c>
       <c r="D28">
-        <v>-0.1397954146171927</v>
+        <v>-0.1516714820886247</v>
       </c>
       <c r="E28">
-        <v>0.01593398767049278</v>
+        <v>0.01169264123132737</v>
       </c>
       <c r="F28">
         <v>0.55</v>
@@ -1122,13 +1122,13 @@
         <v>33</v>
       </c>
       <c r="C29">
-        <v>0.1551334396139066</v>
+        <v>0.153215646317604</v>
       </c>
       <c r="D29">
-        <v>0.5395395271045503</v>
+        <v>0.5304526331674269</v>
       </c>
       <c r="E29">
-        <v>0.5085828006776227</v>
+        <v>0.4995820533301797</v>
       </c>
       <c r="F29">
         <v>0.8</v>
@@ -1142,13 +1142,13 @@
         <v>34</v>
       </c>
       <c r="C30">
-        <v>0.1835660726334487</v>
+        <v>0.1820458569883485</v>
       </c>
       <c r="D30">
-        <v>0.6783414975397</v>
+        <v>0.6711062427598781</v>
       </c>
       <c r="E30">
-        <v>0.623520455265103</v>
+        <v>0.6177652896303841</v>
       </c>
       <c r="F30">
         <v>0.75</v>
@@ -1162,13 +1162,13 @@
         <v>35</v>
       </c>
       <c r="C31">
-        <v>0.1692608122124692</v>
+        <v>0.1679335840377612</v>
       </c>
       <c r="D31">
-        <v>0.6139425970044311</v>
+        <v>0.6076687007105935</v>
       </c>
       <c r="E31">
-        <v>0.5322326574378438</v>
+        <v>0.525912948346356</v>
       </c>
       <c r="F31">
         <v>0.7</v>
@@ -1182,13 +1182,13 @@
         <v>36</v>
       </c>
       <c r="C32">
-        <v>0.06602417779764713</v>
+        <v>0.06262118938101868</v>
       </c>
       <c r="D32">
-        <v>0.1208111174840767</v>
+        <v>0.1049185319394204</v>
       </c>
       <c r="E32">
-        <v>0.1379112458196376</v>
+        <v>0.1294163272441379</v>
       </c>
       <c r="F32">
         <v>0.55</v>
@@ -1202,13 +1202,13 @@
         <v>37</v>
       </c>
       <c r="C33">
-        <v>0.0120583429097052</v>
+        <v>0.00925198273311123</v>
       </c>
       <c r="D33">
-        <v>-0.1296353300673229</v>
+        <v>-0.1425197154542406</v>
       </c>
       <c r="E33">
-        <v>0.01926134905400969</v>
+        <v>0.0146679999905701</v>
       </c>
       <c r="F33">
         <v>0.55</v>
@@ -1222,13 +1222,13 @@
         <v>38</v>
       </c>
       <c r="C34">
-        <v>0.06767927375899996</v>
+        <v>0.06518920110816073</v>
       </c>
       <c r="D34">
-        <v>0.1287355414930264</v>
+        <v>0.1170987882767656</v>
       </c>
       <c r="E34">
-        <v>0.1611550572560224</v>
+        <v>0.1538397718807875</v>
       </c>
       <c r="F34">
         <v>0.6</v>
@@ -1242,13 +1242,13 @@
         <v>39</v>
       </c>
       <c r="C35">
-        <v>0.1417443686696902</v>
+        <v>0.1398657854465508</v>
       </c>
       <c r="D35">
-        <v>0.4783328514132835</v>
+        <v>0.4694196472673737</v>
       </c>
       <c r="E35">
-        <v>0.4646886459665024</v>
+        <v>0.4560528768659967</v>
       </c>
       <c r="F35">
         <v>0.7</v>
@@ -1262,13 +1262,13 @@
         <v>40</v>
       </c>
       <c r="C36">
-        <v>0.1856130991506566</v>
+        <v>0.1840890101872903</v>
       </c>
       <c r="D36">
-        <v>0.6879970202256385</v>
+        <v>0.6807254252444818</v>
       </c>
       <c r="E36">
-        <v>0.630473607814691</v>
+        <v>0.624698647788512</v>
       </c>
       <c r="F36">
         <v>0.75</v>
@@ -1282,13 +1282,13 @@
         <v>41</v>
       </c>
       <c r="C37">
-        <v>0.1692608122124692</v>
+        <v>0.1679335840377612</v>
       </c>
       <c r="D37">
-        <v>0.6139425970044311</v>
+        <v>0.6076687007105935</v>
       </c>
       <c r="E37">
-        <v>0.5322326574378438</v>
+        <v>0.525912948346356</v>
       </c>
       <c r="F37">
         <v>0.7</v>
@@ -1302,13 +1302,13 @@
         <v>42</v>
       </c>
       <c r="C38">
-        <v>0.03924182130822507</v>
+        <v>0.03617984383269524</v>
       </c>
       <c r="D38">
-        <v>-0.003549185058888439</v>
+        <v>-0.01786534014225123</v>
       </c>
       <c r="E38">
-        <v>0.07530824788315307</v>
+        <v>0.06871096444023249</v>
       </c>
       <c r="F38">
         <v>0.65</v>
@@ -1322,13 +1322,13 @@
         <v>43</v>
       </c>
       <c r="C39">
-        <v>0.1423032352107221</v>
+        <v>0.1401635724492918</v>
       </c>
       <c r="D39">
-        <v>0.4799154787132801</v>
+        <v>0.4697021792994826</v>
       </c>
       <c r="E39">
-        <v>0.343988930840589</v>
+        <v>0.3369055815173184</v>
       </c>
       <c r="F39">
         <v>0.8</v>
@@ -1342,13 +1342,13 @@
         <v>44</v>
       </c>
       <c r="C40">
-        <v>0.2057625348374552</v>
+        <v>0.204041225647803</v>
       </c>
       <c r="D40">
-        <v>0.7783526940243926</v>
+        <v>0.7702183632958131</v>
       </c>
       <c r="E40">
-        <v>0.6989153690428391</v>
+        <v>0.692405688018051</v>
       </c>
       <c r="F40">
         <v>0.8</v>
@@ -1362,13 +1362,13 @@
         <v>45</v>
       </c>
       <c r="C41">
-        <v>0.2036753591394058</v>
+        <v>0.2021364044712946</v>
       </c>
       <c r="D41">
-        <v>0.7737283488410007</v>
+        <v>0.7664204181900341</v>
       </c>
       <c r="E41">
-        <v>0.6918258414259106</v>
+        <v>0.6859417540111657</v>
       </c>
       <c r="F41">
         <v>0.75</v>
@@ -1382,13 +1382,13 @@
         <v>46</v>
       </c>
       <c r="C42">
-        <v>0.2005770269102183</v>
+        <v>0.1992090673698506</v>
       </c>
       <c r="D42">
-        <v>0.7634882308207657</v>
+        <v>0.7569358317875217</v>
       </c>
       <c r="E42">
-        <v>0.6813017097364851</v>
+        <v>0.6760079533620525</v>
       </c>
       <c r="F42">
         <v>0.75</v>
@@ -1402,13 +1402,13 @@
         <v>47</v>
       </c>
       <c r="C43">
-        <v>0.1364651774183849</v>
+        <v>0.1352693617576783</v>
       </c>
       <c r="D43">
-        <v>0.4659498871881873</v>
+        <v>0.4601966160459413</v>
       </c>
       <c r="E43">
-        <v>0.4291083274133254</v>
+        <v>0.4236193092080626</v>
       </c>
       <c r="F43">
         <v>0.6</v>
@@ -1422,13 +1422,13 @@
         <v>48</v>
       </c>
       <c r="C44">
-        <v>0.1313716701736074</v>
+        <v>0.1290234145493678</v>
       </c>
       <c r="D44">
-        <v>0.4298424452614237</v>
+        <v>0.4185529699430418</v>
       </c>
       <c r="E44">
-        <v>0.3194125973547157</v>
+        <v>0.3112013946289611</v>
       </c>
       <c r="F44">
         <v>0.75</v>
@@ -1442,13 +1442,13 @@
         <v>49</v>
       </c>
       <c r="C45">
-        <v>0.1624252198798439</v>
+        <v>0.160523953668785</v>
       </c>
       <c r="D45">
-        <v>0.5760315756534383</v>
+        <v>0.5669520375249775</v>
       </c>
       <c r="E45">
-        <v>0.5517111391724613</v>
+        <v>0.5447315768200008</v>
       </c>
       <c r="F45">
         <v>0.7</v>
@@ -1462,13 +1462,13 @@
         <v>50</v>
       </c>
       <c r="C46">
-        <v>0.2175069070683784</v>
+        <v>0.2160579259802207</v>
       </c>
       <c r="D46">
-        <v>0.8361461848995237</v>
+        <v>0.8293052985626092</v>
       </c>
       <c r="E46">
-        <v>0.7388075790529703</v>
+        <v>0.7331838770088226</v>
       </c>
       <c r="F46">
         <v>0.8</v>
@@ -1482,13 +1482,13 @@
         <v>51</v>
       </c>
       <c r="C47">
-        <v>0.2005770269102183</v>
+        <v>0.1992090673698506</v>
       </c>
       <c r="D47">
-        <v>0.7634882308207657</v>
+        <v>0.7569358317875217</v>
       </c>
       <c r="E47">
-        <v>0.6813017097364851</v>
+        <v>0.6760079533620525</v>
       </c>
       <c r="F47">
         <v>0.75</v>
@@ -1502,13 +1502,13 @@
         <v>52</v>
       </c>
       <c r="C48">
-        <v>0.1770883706700435</v>
+        <v>0.1757780548415444</v>
       </c>
       <c r="D48">
-        <v>0.6552504052520642</v>
+        <v>0.6489764769633105</v>
       </c>
       <c r="E48">
-        <v>0.6015175893795349</v>
+        <v>0.5964957552799586</v>
       </c>
       <c r="F48">
         <v>0.65</v>
@@ -1522,13 +1522,13 @@
         <v>53</v>
       </c>
       <c r="C49">
-        <v>0.1454271972085108</v>
+        <v>0.1441352323123455</v>
       </c>
       <c r="D49">
-        <v>0.503129630817666</v>
+        <v>0.4968317718506048</v>
       </c>
       <c r="E49">
-        <v>0.4164874882525547</v>
+        <v>0.4112432527974974</v>
       </c>
       <c r="F49">
         <v>0.65</v>
@@ -1542,13 +1542,13 @@
         <v>54</v>
       </c>
       <c r="C50">
-        <v>0.1854093269374815</v>
+        <v>0.1834876924723867</v>
       </c>
       <c r="D50">
-        <v>0.6862926362390793</v>
+        <v>0.6770886073927339</v>
       </c>
       <c r="E50">
-        <v>0.6297814529883302</v>
+        <v>0.6226581003217765</v>
       </c>
       <c r="F50">
         <v>0.75</v>
@@ -1562,13 +1562,13 @@
         <v>55</v>
       </c>
       <c r="C51">
-        <v>0.2120770693134562</v>
+        <v>0.2106363431487832</v>
       </c>
       <c r="D51">
-        <v>0.8120943063999105</v>
+        <v>0.8052435840368556</v>
       </c>
       <c r="E51">
-        <v>0.7203640025227611</v>
+        <v>0.7147859538507446</v>
       </c>
       <c r="F51">
         <v>0.8</v>
@@ -1582,13 +1582,13 @@
         <v>56</v>
       </c>
       <c r="C52">
-        <v>0.2078209667643107</v>
+        <v>0.2064204560644007</v>
       </c>
       <c r="D52">
-        <v>0.795348424646269</v>
+        <v>0.7886610176966544</v>
       </c>
       <c r="E52">
-        <v>0.7059072624453228</v>
+        <v>0.7004795106895639</v>
       </c>
       <c r="F52">
         <v>0.8</v>
@@ -1602,13 +1602,13 @@
         <v>57</v>
       </c>
       <c r="C53">
-        <v>0.1969753949081683</v>
+        <v>0.1956161501743727</v>
       </c>
       <c r="D53">
-        <v>0.7460414243545378</v>
+        <v>0.7395707628845994</v>
       </c>
       <c r="E53">
-        <v>0.6690680153865483</v>
+        <v>0.6638155334487307</v>
       </c>
       <c r="F53">
         <v>0.7</v>
@@ -1622,13 +1622,13 @@
         <v>58</v>
       </c>
       <c r="C54">
-        <v>0.1454271972085108</v>
+        <v>0.1441352323123455</v>
       </c>
       <c r="D54">
-        <v>0.503129630817666</v>
+        <v>0.4968317718506048</v>
       </c>
       <c r="E54">
-        <v>0.4164874882525547</v>
+        <v>0.4112432527974974</v>
       </c>
       <c r="F54">
         <v>0.65</v>
@@ -1642,13 +1642,13 @@
         <v>59</v>
       </c>
       <c r="C55">
-        <v>0.1235173381346173</v>
+        <v>0.122349282094554</v>
       </c>
       <c r="D55">
-        <v>0.4050664833706684</v>
+        <v>0.3994203794426819</v>
       </c>
       <c r="E55">
-        <v>0.3883944561988408</v>
+        <v>0.3831578539998197</v>
       </c>
       <c r="F55">
         <v>0.6</v>
